--- a/data/datas.xlsx
+++ b/data/datas.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
     <sheet name="sp-1" sheetId="3" r:id="rId2"/>
-    <sheet name="sp-2" sheetId="11" r:id="rId3"/>
-    <sheet name="sp-3" sheetId="13" r:id="rId4"/>
+    <sheet name="sp-3" sheetId="11" r:id="rId3"/>
+    <sheet name="sp-2" sheetId="13" r:id="rId4"/>
     <sheet name="sp-4" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -4703,7 +4703,7 @@
   <sheetPr/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
@@ -6149,7 +6149,7 @@
   <sheetPr/>
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>

--- a/data/datas.xlsx
+++ b/data/datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12280" activeTab="2"/>
+    <workbookView windowWidth="25600" windowHeight="12080" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,14 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,16 +587,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,119 +602,122 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,11 +727,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1252,29 +1265,29 @@
       <c r="B3" s="1">
         <v>-60</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>90</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>0.08163</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="5"/>
+      <c r="M3" s="7"/>
       <c r="O3" s="1">
         <v>-25</v>
       </c>
@@ -1313,9 +1326,9 @@
         <f t="shared" ref="Y3:Y13" si="4">1-X3/97.5</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="6">
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="8">
         <v>-70</v>
       </c>
       <c r="AC3" s="2">
@@ -1348,29 +1361,29 @@
       <c r="B4" s="1">
         <v>-55</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>90.5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>0.07653</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="7"/>
       <c r="O4" s="1">
         <v>-20</v>
       </c>
@@ -1409,8 +1422,8 @@
         <f t="shared" si="4"/>
         <v>0.0153846153846153</v>
       </c>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
       <c r="AB4" s="1">
         <v>-65</v>
       </c>
@@ -1444,29 +1457,29 @@
       <c r="B5" s="1">
         <v>-50</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>89</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>0.09184</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="7"/>
       <c r="O5" s="1">
         <v>-15</v>
       </c>
@@ -1505,9 +1518,9 @@
         <f t="shared" si="4"/>
         <v>0.0205128205128206</v>
       </c>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="6">
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="8">
         <v>-60</v>
       </c>
       <c r="AC5" s="2">
@@ -1546,33 +1559,33 @@
       <c r="B6" s="1">
         <v>-45</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>85.5</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>0.12755</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>89.5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="7">
         <v>0.08673</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="7">
         <v>96</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="7">
         <v>0.02041</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="7"/>
       <c r="O6" s="1">
         <v>-10</v>
       </c>
@@ -1611,8 +1624,8 @@
         <f t="shared" si="4"/>
         <v>0.041025641025641</v>
       </c>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
       <c r="AB6" s="1">
         <v>-55</v>
       </c>
@@ -1664,37 +1677,37 @@
       <c r="B7" s="1">
         <v>-40</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>89.5</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <v>0.08673</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <v>90.5</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="7">
         <v>0.07653</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="7">
         <v>93</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="7">
         <v>0.05102</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="7">
         <v>89</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="7">
         <v>0.09184</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="7">
         <v>97.5</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="7">
         <v>0.0051</v>
       </c>
-      <c r="M7" s="5"/>
+      <c r="M7" s="7"/>
       <c r="O7" s="1">
         <v>-5</v>
       </c>
@@ -1733,9 +1746,9 @@
         <f t="shared" si="4"/>
         <v>0.0666666666666667</v>
       </c>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="6">
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="8">
         <v>-50</v>
       </c>
       <c r="AC7" s="2">
@@ -1804,37 +1817,37 @@
       <c r="B8" s="1">
         <v>-35</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>89</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
         <v>0.09184</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="7">
         <v>85</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="7">
         <v>0.13265</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="7">
         <v>93</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="7">
         <v>0.05102</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="7">
         <v>88.5</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="7">
         <v>0.09694</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="7">
         <v>97</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="7">
         <v>0.0102</v>
       </c>
-      <c r="M8" s="5"/>
+      <c r="M8" s="7"/>
       <c r="O8" s="1">
         <v>0</v>
       </c>
@@ -1873,8 +1886,8 @@
         <f t="shared" si="4"/>
         <v>0.0615384615384615</v>
       </c>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
       <c r="AB8" s="1">
         <v>-45</v>
       </c>
@@ -1957,37 +1970,37 @@
       <c r="B9" s="1">
         <v>-30</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>86.5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="7">
         <v>0.11735</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="7">
         <v>88.5</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="7">
         <v>0.09694</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="7">
         <v>91.5</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="7">
         <v>0.06633</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="7">
         <v>87.5</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="7">
         <v>0.10714</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="7">
         <v>96.5</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="7">
         <v>0.01531</v>
       </c>
-      <c r="M9" s="5"/>
+      <c r="M9" s="7"/>
       <c r="O9" s="1">
         <v>5</v>
       </c>
@@ -2026,9 +2039,9 @@
         <f t="shared" si="4"/>
         <v>0.0307692307692308</v>
       </c>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="6">
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="8">
         <v>-40</v>
       </c>
       <c r="AC9" s="2">
@@ -2110,37 +2123,37 @@
       <c r="B10" s="1">
         <v>-25</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>84</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="7">
         <v>0.14286</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="7">
         <v>88</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="7">
         <v>0.10204</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="7">
         <v>89.5</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="7">
         <v>0.08673</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="7">
         <v>89</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="7">
         <v>0.09184</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="7">
         <v>96</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="7">
         <v>0.02041</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="7"/>
       <c r="O10" s="1">
         <v>10</v>
       </c>
@@ -2179,8 +2192,8 @@
         <f t="shared" si="4"/>
         <v>0.0358974358974359</v>
       </c>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
       <c r="AB10" s="1">
         <v>-35</v>
       </c>
@@ -2263,37 +2276,37 @@
       <c r="B11" s="1">
         <v>-20</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>82</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="7">
         <v>0.16327</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>83.5</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="7">
         <v>0.14796</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="7">
         <v>86.5</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="7">
         <v>0.11735</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="7">
         <v>86</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="7">
         <v>0.12245</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="7">
         <v>95</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="7">
         <v>0.03061</v>
       </c>
-      <c r="M11" s="5"/>
+      <c r="M11" s="7"/>
       <c r="O11" s="1">
         <v>15</v>
       </c>
@@ -2332,9 +2345,9 @@
         <f t="shared" si="4"/>
         <v>0.0153846153846153</v>
       </c>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="6">
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="8">
         <v>-30</v>
       </c>
       <c r="AC11" s="2">
@@ -2416,37 +2429,37 @@
       <c r="B12" s="1">
         <v>-15</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <v>83.5</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="7">
         <v>0.14796</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="7">
         <v>79</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="7">
         <v>0.19388</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="7">
         <v>85.5</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="7">
         <v>0.12755</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="7">
         <v>83</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="7">
         <v>0.15306</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="7">
         <v>94</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="7">
         <v>0.04082</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="7"/>
       <c r="O12" s="1">
         <v>20</v>
       </c>
@@ -2485,8 +2498,8 @@
         <f t="shared" si="4"/>
         <v>0.00512820512820511</v>
       </c>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
       <c r="AB12" s="1">
         <v>-25</v>
       </c>
@@ -2569,37 +2582,37 @@
       <c r="B13" s="1">
         <v>-10</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>75</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="7">
         <v>0.23469</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="7">
         <v>76</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="7">
         <v>0.22449</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="7">
         <v>83.5</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="7">
         <v>0.14796</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="7">
         <v>84</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="7">
         <v>0.14286</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="7">
         <v>94</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="7">
         <v>0.04082</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="7"/>
       <c r="O13" s="1">
         <v>25</v>
       </c>
@@ -2638,9 +2651,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="6">
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="8">
         <v>-20</v>
       </c>
       <c r="AC13" s="2">
@@ -2722,50 +2735,50 @@
       <c r="B14" s="1">
         <v>-5</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <v>73</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="7">
         <v>0.2551</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="7">
         <v>78.5</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="7">
         <v>0.19898</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="7">
         <v>81.5</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="7">
         <v>0.16837</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="7">
         <v>74.5</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="7">
         <v>0.2398</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="7">
         <v>93</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="7">
         <v>0.05102</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="7"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="5"/>
+      <c r="P14" s="7"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
       <c r="AB14" s="1">
         <v>-15</v>
       </c>
@@ -2848,52 +2861,52 @@
       <c r="B15" s="1">
         <v>0</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>49.5</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="7">
         <v>0.4949</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="7">
         <v>77</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="7">
         <v>0.21429</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="7">
         <v>83</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="7">
         <v>0.15306</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="7">
         <v>70.5</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="7">
         <v>0.28061</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="7">
         <v>91</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="7">
         <v>0.07143</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="6">
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="8">
         <v>-10</v>
       </c>
       <c r="AC15" s="2">
@@ -2975,51 +2988,51 @@
       <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <v>68.5</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="7">
         <v>0.30102</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7">
         <v>86.5</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="7">
         <v>0.11735</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="7">
         <v>84</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="7">
         <v>0.14286</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="7">
         <v>75</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="7">
         <v>0.23469</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="7">
         <v>87</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="7">
         <v>0.11224</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
       <c r="AB16" s="1">
         <v>-5</v>
       </c>
@@ -3102,52 +3115,52 @@
       <c r="B17" s="1">
         <v>10</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>71.5</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="7">
         <v>0.27041</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7">
         <v>88.5</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="7">
         <v>0.09694</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="7">
         <v>87</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="7">
         <v>0.11224</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="7">
         <v>78</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="7">
         <v>0.20408</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="7">
         <v>92.5</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="7">
         <v>0.05612</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="6">
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="8">
         <v>0</v>
       </c>
       <c r="AC17" s="2">
@@ -3229,51 +3242,51 @@
       <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <v>80</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="7">
         <v>0.18367</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="7">
         <v>83</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="7">
         <v>0.15306</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="7">
         <v>88.5</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="7">
         <v>0.09694</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="7">
         <v>84</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="7">
         <v>0.14286</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="7">
         <v>90</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="7">
         <v>0.08163</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
       <c r="AB18" s="1">
         <v>5</v>
       </c>
@@ -3356,52 +3369,52 @@
       <c r="B19" s="1">
         <v>20</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <v>85.5</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="7">
         <v>0.12755</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="7">
         <v>87.5</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="7">
         <v>0.10714</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="7">
         <v>88.5</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="7">
         <v>0.09694</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="7">
         <v>89</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="7">
         <v>0.09184</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="7">
         <v>93.5</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="7">
         <v>0.04592</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="6">
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="8">
         <v>10</v>
       </c>
       <c r="AC19" s="2">
@@ -3483,51 +3496,51 @@
       <c r="B20" s="1">
         <v>25</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <v>86.5</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="7">
         <v>0.11735</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="7">
         <v>90.5</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="7">
         <v>0.07653</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="7">
         <v>89.5</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="7">
         <v>0.08673</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="7">
         <v>88.5</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="7">
         <v>0.09694</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="7">
         <v>94.5</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="7">
         <v>0.03571</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
       <c r="AB20" s="1">
         <v>15</v>
       </c>
@@ -3610,52 +3623,52 @@
       <c r="B21" s="1">
         <v>30</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <v>89.5</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="7">
         <v>0.08673</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="7">
         <v>89</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="7">
         <v>0.09184</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="7">
         <v>90</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="7">
         <v>0.08163</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="7">
         <v>89.5</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="7">
         <v>0.08673</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="7">
         <v>96</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="7">
         <v>0.02041</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="6">
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="8">
         <v>20</v>
       </c>
       <c r="AC21" s="2">
@@ -3737,51 +3750,51 @@
       <c r="B22" s="1">
         <v>35</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="7">
         <v>89.5</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="7">
         <v>0.08673</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="7">
         <v>90.5</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="7">
         <v>0.07653</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="7">
         <v>89.5</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="7">
         <v>0.08673</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="7">
         <v>90.5</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="7">
         <v>0.07653</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="7">
         <v>97</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="7">
         <v>0.0102</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
       <c r="AB22" s="1">
         <v>25</v>
       </c>
@@ -3864,52 +3877,52 @@
       <c r="B23" s="1">
         <v>40</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="7">
         <v>90</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="7">
         <v>0.08163</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="7">
         <v>94</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="7">
         <v>0.04082</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="7">
         <v>91.5</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="7">
         <v>0.06633</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="7">
         <v>90</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="7">
         <v>0.08163</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="7">
         <v>96.5</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="7">
         <v>0.01531</v>
       </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="6">
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="8">
         <v>30</v>
       </c>
       <c r="AC23" s="2">
@@ -3991,43 +4004,43 @@
       <c r="B24" s="1">
         <v>45</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="7">
         <v>90</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="7">
         <v>0.08163</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="7">
         <v>93</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="7">
         <v>0.05102</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7">
         <v>91.5</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="7">
         <v>0.06633</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
       <c r="AB24" s="1">
         <v>35</v>
       </c>
@@ -4098,36 +4111,36 @@
       <c r="B25" s="1">
         <v>50</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="7">
         <v>90</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="7">
         <v>0.08163</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="6">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="8">
         <v>40</v>
       </c>
       <c r="AC25" s="2">
@@ -4197,35 +4210,35 @@
       <c r="B26" s="1">
         <v>55</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="7">
         <v>89.5</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="7">
         <v>0.08673</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
       <c r="AB26" s="1">
         <v>45</v>
       </c>
@@ -4284,36 +4297,36 @@
       <c r="B27" s="1">
         <v>60</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="7">
         <v>89</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="7">
         <v>0.09184</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="6">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="8">
         <v>50</v>
       </c>
       <c r="AC27" s="2">
@@ -4358,35 +4371,35 @@
       <c r="B28" s="1">
         <v>65</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="7">
         <v>90</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="7">
         <v>0.08163</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
       <c r="AB28" s="1">
         <v>55</v>
       </c>
@@ -4430,32 +4443,32 @@
     </row>
     <row r="29" spans="2:37">
       <c r="B29" s="1"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="6">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="8">
         <v>60</v>
       </c>
       <c r="AC29" s="2">
@@ -4473,31 +4486,31 @@
     </row>
     <row r="30" spans="2:37">
       <c r="B30" s="1"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
       <c r="AB30" s="1">
         <v>65</v>
       </c>
@@ -4515,32 +4528,32 @@
     </row>
     <row r="31" spans="2:37">
       <c r="B31" s="1"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="6">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="8">
         <v>70</v>
       </c>
       <c r="AC31" s="2">
@@ -6149,7 +6162,7 @@
   <sheetPr/>
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
@@ -7534,503 +7547,1183 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:29">
       <c r="A1" s="3"/>
       <c r="B1" s="3">
+        <v>-65</v>
+      </c>
+      <c r="C1" s="3">
+        <v>-60</v>
+      </c>
+      <c r="D1" s="3">
+        <v>-55</v>
+      </c>
+      <c r="E1" s="3">
+        <v>-50</v>
+      </c>
+      <c r="F1" s="3">
+        <v>-45</v>
+      </c>
+      <c r="G1" s="3">
+        <v>-40</v>
+      </c>
+      <c r="H1" s="3">
+        <v>-35</v>
+      </c>
+      <c r="I1" s="3">
         <v>-30</v>
       </c>
-      <c r="C1" s="3">
+      <c r="J1" s="3">
         <v>-25</v>
       </c>
-      <c r="D1" s="3">
+      <c r="K1" s="3">
         <v>-20</v>
       </c>
-      <c r="E1" s="3">
+      <c r="L1" s="3">
         <v>-15</v>
       </c>
-      <c r="F1" s="3">
+      <c r="M1" s="3">
         <v>-10</v>
       </c>
-      <c r="G1" s="3">
+      <c r="N1" s="3">
         <v>-5</v>
       </c>
-      <c r="H1" s="3">
+      <c r="O1" s="3">
         <v>0</v>
       </c>
-      <c r="I1" s="3">
+      <c r="P1" s="3">
         <v>5</v>
       </c>
-      <c r="J1" s="3">
+      <c r="Q1" s="3">
         <v>10</v>
       </c>
-      <c r="K1" s="3">
+      <c r="R1" s="3">
         <v>15</v>
       </c>
-      <c r="L1" s="3">
+      <c r="S1" s="3">
         <v>20</v>
       </c>
-      <c r="M1" s="3">
+      <c r="T1" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="U1" s="3">
+        <v>30</v>
+      </c>
+      <c r="V1" s="3">
+        <v>35</v>
+      </c>
+      <c r="W1" s="3">
+        <v>40</v>
+      </c>
+      <c r="X1" s="3">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>50</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="3">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="L2" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="M2" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="N2" s="4">
         <v>97</v>
       </c>
-      <c r="C2" s="4">
-        <v>93</v>
-      </c>
-      <c r="D2" s="4">
-        <v>92</v>
-      </c>
-      <c r="E2" s="4">
-        <v>91.5</v>
-      </c>
-      <c r="F2" s="4">
-        <v>94.5</v>
-      </c>
-      <c r="G2" s="4">
-        <v>89</v>
-      </c>
-      <c r="H2" s="4">
-        <v>93</v>
-      </c>
-      <c r="I2" s="4">
-        <v>93.5</v>
-      </c>
-      <c r="J2" s="4">
-        <v>95</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="O2" s="4">
         <v>95.5</v>
       </c>
-      <c r="L2" s="4">
-        <v>96.5</v>
-      </c>
-      <c r="M2" s="4">
-        <v>96.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="P2" s="4">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>97</v>
+      </c>
+      <c r="R2" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="3">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4">
-        <v>95.5</v>
-      </c>
-      <c r="C3" s="4">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="J3" s="4">
+        <v>97</v>
+      </c>
+      <c r="K3" s="4">
+        <v>97</v>
+      </c>
+      <c r="L3" s="4">
         <v>96</v>
-      </c>
-      <c r="D3" s="4">
-        <v>92</v>
-      </c>
-      <c r="E3" s="4">
-        <v>94.5</v>
-      </c>
-      <c r="F3" s="4">
-        <v>92.5</v>
-      </c>
-      <c r="G3" s="4">
-        <v>91.5</v>
-      </c>
-      <c r="H3" s="4">
-        <v>90</v>
-      </c>
-      <c r="I3" s="4">
-        <v>91</v>
-      </c>
-      <c r="J3" s="4">
-        <v>94.5</v>
-      </c>
-      <c r="K3" s="4">
-        <v>95.5</v>
-      </c>
-      <c r="L3" s="4">
-        <v>95.5</v>
       </c>
       <c r="M3" s="4">
         <v>95.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="O3" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="P3" s="4">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>97</v>
+      </c>
+      <c r="R3" s="4">
+        <v>97</v>
+      </c>
+      <c r="S3" s="4">
+        <v>97</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="3">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4">
-        <v>94</v>
-      </c>
-      <c r="C4" s="4">
-        <v>94.5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>92</v>
-      </c>
-      <c r="E4" s="4">
-        <v>91</v>
-      </c>
-      <c r="F4" s="4">
-        <v>90</v>
-      </c>
-      <c r="G4" s="4">
-        <v>87</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="4">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I4" s="4">
-        <v>88.5</v>
+        <v>97</v>
       </c>
       <c r="J4" s="4">
-        <v>89.5</v>
+        <v>93</v>
       </c>
       <c r="K4" s="4">
         <v>92</v>
       </c>
       <c r="L4" s="4">
-        <v>92.5</v>
+        <v>91.5</v>
       </c>
       <c r="M4" s="4">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="4">
+        <v>89</v>
+      </c>
+      <c r="O4" s="4">
+        <v>93</v>
+      </c>
+      <c r="P4" s="4">
+        <v>93.5</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>95</v>
+      </c>
+      <c r="R4" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="S4" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="T4" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="U4" s="4">
+        <v>97</v>
+      </c>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="3">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>95</v>
+      </c>
+      <c r="H5" s="4">
+        <v>95</v>
+      </c>
+      <c r="I5" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="J5" s="4">
+        <v>96</v>
+      </c>
+      <c r="K5" s="4">
+        <v>92</v>
+      </c>
+      <c r="L5" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="M5" s="4">
+        <v>92.5</v>
+      </c>
+      <c r="N5" s="4">
+        <v>91.5</v>
+      </c>
+      <c r="O5" s="4">
+        <v>90</v>
+      </c>
+      <c r="P5" s="4">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="R5" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="S5" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="T5" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="U5" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="3">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>97</v>
+      </c>
+      <c r="H6" s="4">
+        <v>97</v>
+      </c>
+      <c r="I6" s="4">
+        <v>94</v>
+      </c>
+      <c r="J6" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>92</v>
+      </c>
+      <c r="L6" s="4">
+        <v>91</v>
+      </c>
+      <c r="M6" s="4">
+        <v>90</v>
+      </c>
+      <c r="N6" s="4">
+        <v>87</v>
+      </c>
+      <c r="O6" s="4">
+        <v>86</v>
+      </c>
+      <c r="P6" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>89.5</v>
+      </c>
+      <c r="R6" s="4">
+        <v>92</v>
+      </c>
+      <c r="S6" s="4">
+        <v>92.5</v>
+      </c>
+      <c r="T6" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="U6" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="V6" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="3">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>96</v>
+      </c>
+      <c r="H7" s="4">
+        <v>95</v>
+      </c>
+      <c r="I7" s="4">
         <v>92</v>
       </c>
-      <c r="C5" s="4">
+      <c r="J7" s="4">
         <v>90</v>
       </c>
-      <c r="D5" s="4">
+      <c r="K7" s="4">
         <v>88</v>
       </c>
-      <c r="E5" s="4">
+      <c r="L7" s="4">
         <v>87</v>
       </c>
-      <c r="F5" s="4">
+      <c r="M7" s="4">
         <v>84.5</v>
       </c>
-      <c r="G5" s="4">
+      <c r="N7" s="4">
         <v>86.5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="O7" s="4">
         <v>87.5</v>
       </c>
-      <c r="I5" s="4">
+      <c r="P7" s="4">
         <v>86</v>
       </c>
-      <c r="J5" s="4">
+      <c r="Q7" s="4">
         <v>88.5</v>
       </c>
-      <c r="K5" s="4">
+      <c r="R7" s="4">
         <v>91.5</v>
       </c>
-      <c r="L5" s="4">
+      <c r="S7" s="4">
         <v>89.5</v>
       </c>
-      <c r="M5" s="4">
+      <c r="T7" s="4">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3">
+      <c r="U7" s="4">
+        <v>94</v>
+      </c>
+      <c r="V7" s="4">
+        <v>94</v>
+      </c>
+      <c r="W7" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="X7" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>93.5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>93</v>
+      </c>
+      <c r="F8" s="4">
+        <v>92</v>
+      </c>
+      <c r="G8" s="4">
+        <v>91.5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>90</v>
+      </c>
+      <c r="I8" s="4">
         <v>87.5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="J8" s="4">
         <v>88</v>
       </c>
-      <c r="D6" s="4">
+      <c r="K8" s="4">
         <v>82</v>
       </c>
-      <c r="E6" s="4">
+      <c r="L8" s="4">
         <v>81</v>
       </c>
-      <c r="F6" s="4">
+      <c r="M8" s="4">
         <v>71</v>
       </c>
-      <c r="G6" s="4">
+      <c r="N8" s="4">
         <v>66.5</v>
       </c>
-      <c r="H6" s="4">
+      <c r="O8" s="4">
         <v>74.5</v>
       </c>
-      <c r="I6" s="4">
+      <c r="P8" s="4">
         <v>78.5</v>
       </c>
-      <c r="J6" s="4">
+      <c r="Q8" s="4">
         <v>83</v>
       </c>
-      <c r="K6" s="4">
+      <c r="R8" s="4">
         <v>86</v>
       </c>
-      <c r="L6" s="4">
+      <c r="S8" s="4">
         <v>87.5</v>
       </c>
-      <c r="M6" s="4">
+      <c r="T8" s="4">
         <v>92.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3">
+      <c r="U8" s="4">
+        <v>94</v>
+      </c>
+      <c r="V8" s="4">
+        <v>95</v>
+      </c>
+      <c r="W8" s="4">
+        <v>95</v>
+      </c>
+      <c r="X8" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>95</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="3">
         <v>0</v>
       </c>
-      <c r="B7" s="4">
-        <v>87.5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>83.5</v>
-      </c>
-      <c r="D7" s="4">
-        <v>85</v>
-      </c>
-      <c r="E7" s="4">
-        <v>78</v>
-      </c>
-      <c r="F7" s="4">
-        <v>68</v>
-      </c>
-      <c r="G7" s="4">
-        <v>67.5</v>
-      </c>
-      <c r="H7" s="4">
-        <v>74</v>
-      </c>
-      <c r="I7" s="4">
-        <v>77</v>
-      </c>
-      <c r="J7" s="4">
-        <v>73.5</v>
-      </c>
-      <c r="K7" s="4">
-        <v>84</v>
-      </c>
-      <c r="L7" s="4">
-        <v>87.5</v>
-      </c>
-      <c r="M7" s="4">
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="3">
-        <v>-5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>81.5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>83</v>
-      </c>
-      <c r="D8" s="4">
-        <v>80.5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>74.5</v>
-      </c>
-      <c r="F8" s="4">
-        <v>70</v>
-      </c>
-      <c r="G8" s="4">
-        <v>70.5</v>
-      </c>
-      <c r="H8" s="4">
-        <v>68</v>
-      </c>
-      <c r="I8" s="4">
-        <v>74.5</v>
-      </c>
-      <c r="J8" s="4">
-        <v>72</v>
-      </c>
-      <c r="K8" s="4">
-        <v>86.5</v>
-      </c>
-      <c r="L8" s="4">
-        <v>85.5</v>
-      </c>
-      <c r="M8" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3">
-        <v>-10</v>
-      </c>
       <c r="B9" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="4">
-        <v>88.5</v>
+        <v>91</v>
       </c>
       <c r="D9" s="4">
         <v>90.5</v>
       </c>
       <c r="E9" s="4">
+        <v>90</v>
+      </c>
+      <c r="F9" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>89.5</v>
+      </c>
+      <c r="I9" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="J9" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>85</v>
+      </c>
+      <c r="L9" s="4">
+        <v>78</v>
+      </c>
+      <c r="M9" s="4">
+        <v>68</v>
+      </c>
+      <c r="N9" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="O9" s="4">
+        <v>74</v>
+      </c>
+      <c r="P9" s="4">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>73.5</v>
+      </c>
+      <c r="R9" s="4">
+        <v>84</v>
+      </c>
+      <c r="S9" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="T9" s="4">
         <v>88.5</v>
       </c>
-      <c r="F9" s="4">
-        <v>83</v>
-      </c>
-      <c r="G9" s="4">
-        <v>85</v>
-      </c>
-      <c r="H9" s="4">
-        <v>87</v>
-      </c>
-      <c r="I9" s="4">
-        <v>88</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="U9" s="4">
+        <v>89</v>
+      </c>
+      <c r="V9" s="4">
+        <v>90</v>
+      </c>
+      <c r="W9" s="4">
         <v>89.5</v>
       </c>
-      <c r="K9" s="4">
+      <c r="X9" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>91.5</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>92</v>
+      </c>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="3">
+        <v>-5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>91</v>
+      </c>
+      <c r="C10" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="D10" s="4">
         <v>90</v>
       </c>
-      <c r="L9" s="4">
-        <v>93.5</v>
-      </c>
-      <c r="M9" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3">
-        <v>-15</v>
-      </c>
-      <c r="B10" s="4">
-        <v>95</v>
-      </c>
-      <c r="C10" s="4">
-        <v>97</v>
-      </c>
-      <c r="D10" s="4">
-        <v>95.5</v>
-      </c>
       <c r="E10" s="4">
-        <v>94.5</v>
+        <v>89</v>
       </c>
       <c r="F10" s="4">
-        <v>88.5</v>
+        <v>89.5</v>
       </c>
       <c r="G10" s="4">
-        <v>85</v>
+        <v>89.5</v>
       </c>
       <c r="H10" s="4">
         <v>88</v>
       </c>
       <c r="I10" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="J10" s="4">
+        <v>83</v>
+      </c>
+      <c r="K10" s="4">
+        <v>80.5</v>
+      </c>
+      <c r="L10" s="4">
+        <v>74.5</v>
+      </c>
+      <c r="M10" s="4">
+        <v>70</v>
+      </c>
+      <c r="N10" s="4">
+        <v>70.5</v>
+      </c>
+      <c r="O10" s="4">
+        <v>68</v>
+      </c>
+      <c r="P10" s="4">
+        <v>74.5</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>72</v>
+      </c>
+      <c r="R10" s="4">
+        <v>86.5</v>
+      </c>
+      <c r="S10" s="4">
+        <v>85.5</v>
+      </c>
+      <c r="T10" s="4">
         <v>87</v>
       </c>
-      <c r="J10" s="4">
-        <v>92.5</v>
-      </c>
-      <c r="K10" s="4">
-        <v>95.5</v>
-      </c>
-      <c r="L10" s="4">
-        <v>95.5</v>
-      </c>
-      <c r="M10" s="4">
+      <c r="U10" s="4">
+        <v>90</v>
+      </c>
+      <c r="V10" s="4">
+        <v>89.5</v>
+      </c>
+      <c r="W10" s="4">
+        <v>90</v>
+      </c>
+      <c r="X10" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>90</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="3">
+        <v>-10</v>
+      </c>
+      <c r="B11" s="4">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="3">
-        <v>-20</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="C11" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>97</v>
+      </c>
+      <c r="E11" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>96</v>
+      </c>
+      <c r="H11" s="4">
+        <v>94</v>
+      </c>
+      <c r="I11" s="4">
+        <v>92</v>
+      </c>
+      <c r="J11" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="K11" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="L11" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="M11" s="4">
+        <v>83</v>
+      </c>
+      <c r="N11" s="4">
+        <v>85</v>
+      </c>
+      <c r="O11" s="4">
+        <v>87</v>
+      </c>
+      <c r="P11" s="4">
+        <v>88</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>89.5</v>
+      </c>
+      <c r="R11" s="4">
+        <v>90</v>
+      </c>
+      <c r="S11" s="4">
+        <v>93.5</v>
+      </c>
+      <c r="T11" s="4">
+        <v>95</v>
+      </c>
+      <c r="U11" s="4">
+        <v>96</v>
+      </c>
+      <c r="V11" s="4">
+        <v>96</v>
+      </c>
+      <c r="W11" s="4">
+        <v>97</v>
+      </c>
+      <c r="X11" s="4">
+        <v>96</v>
+      </c>
+      <c r="Y11" s="4">
         <v>97.5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="Z11" s="4">
         <v>97.5</v>
       </c>
-      <c r="D11" s="4">
-        <v>96</v>
-      </c>
-      <c r="E11" s="4">
-        <v>95.5</v>
-      </c>
-      <c r="F11" s="4">
-        <v>93.5</v>
-      </c>
-      <c r="G11" s="4">
-        <v>91</v>
-      </c>
-      <c r="H11" s="4">
-        <v>91.5</v>
-      </c>
-      <c r="I11" s="4">
-        <v>94.5</v>
-      </c>
-      <c r="J11" s="4">
-        <v>94</v>
-      </c>
-      <c r="K11" s="4">
-        <v>96</v>
-      </c>
-      <c r="L11" s="4">
-        <v>97</v>
-      </c>
-      <c r="M11" s="4">
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="3">
+        <v>-15</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
         <v>97.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="3">
-        <v>-25</v>
-      </c>
-      <c r="B12" s="4">
-        <v>97.5</v>
-      </c>
-      <c r="C12" s="4">
-        <v>97</v>
-      </c>
       <c r="D12" s="4">
-        <v>96</v>
+        <v>96.5</v>
       </c>
       <c r="E12" s="4">
         <v>96</v>
       </c>
       <c r="F12" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="G12" s="4">
+        <v>96</v>
+      </c>
+      <c r="H12" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="I12" s="4">
         <v>95</v>
       </c>
-      <c r="G12" s="4">
+      <c r="J12" s="4">
+        <v>97</v>
+      </c>
+      <c r="K12" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="L12" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="M12" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="N12" s="4">
+        <v>85</v>
+      </c>
+      <c r="O12" s="4">
+        <v>88</v>
+      </c>
+      <c r="P12" s="4">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="4">
         <v>92.5</v>
       </c>
-      <c r="H12" s="4">
+      <c r="R12" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="S12" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="T12" s="4">
+        <v>97</v>
+      </c>
+      <c r="U12" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="V12" s="4">
+        <v>96</v>
+      </c>
+      <c r="W12" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="X12" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>97</v>
+      </c>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="3">
+        <v>-20</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>97</v>
+      </c>
+      <c r="H13" s="4">
+        <v>96</v>
+      </c>
+      <c r="I13" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="J13" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="K13" s="4">
+        <v>96</v>
+      </c>
+      <c r="L13" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="M13" s="4">
+        <v>93.5</v>
+      </c>
+      <c r="N13" s="4">
+        <v>91</v>
+      </c>
+      <c r="O13" s="4">
+        <v>91.5</v>
+      </c>
+      <c r="P13" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>94</v>
+      </c>
+      <c r="R13" s="4">
+        <v>96</v>
+      </c>
+      <c r="S13" s="4">
+        <v>97</v>
+      </c>
+      <c r="T13" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="U13" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="V13" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="W13" s="4">
+        <v>97</v>
+      </c>
+      <c r="X13" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="3">
+        <v>-25</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="H14" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="J14" s="4">
+        <v>97</v>
+      </c>
+      <c r="K14" s="4">
+        <v>96</v>
+      </c>
+      <c r="L14" s="4">
+        <v>96</v>
+      </c>
+      <c r="M14" s="4">
+        <v>95</v>
+      </c>
+      <c r="N14" s="4">
+        <v>92.5</v>
+      </c>
+      <c r="O14" s="4">
         <v>93</v>
       </c>
-      <c r="I12" s="4">
+      <c r="P14" s="4">
         <v>94.5</v>
       </c>
-      <c r="J12" s="4">
+      <c r="Q14" s="4">
         <v>95</v>
       </c>
-      <c r="K12" s="4">
+      <c r="R14" s="4">
         <v>96</v>
       </c>
-      <c r="L12" s="4">
+      <c r="S14" s="4">
         <v>96.5</v>
       </c>
-      <c r="M12" s="4">
+      <c r="T14" s="4">
         <v>97.5</v>
       </c>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="3">
+        <v>-30</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="K15" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="L15" s="4">
+        <v>97</v>
+      </c>
+      <c r="M15" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="N15" s="4">
+        <v>96</v>
+      </c>
+      <c r="O15" s="4">
+        <v>96</v>
+      </c>
+      <c r="P15" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>97</v>
+      </c>
+      <c r="R15" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="S15" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="3">
+        <v>-35</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="K16" s="4">
+        <v>97</v>
+      </c>
+      <c r="L16" s="4">
+        <v>97</v>
+      </c>
+      <c r="M16" s="4">
+        <v>97</v>
+      </c>
+      <c r="N16" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="O16" s="4">
+        <v>95</v>
+      </c>
+      <c r="P16" s="4">
+        <v>96</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="R16" s="4">
+        <v>97</v>
+      </c>
+      <c r="S16" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
